--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6.881560286320602E-06</v>
+        <v>5.405049002490183E-05</v>
       </c>
       <c r="E2">
-        <v>6.881560286320602E-06</v>
+        <v>5.405049002490183E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.243249168317677E-55</v>
+        <v>4.609702174208856E-77</v>
       </c>
       <c r="E3">
-        <v>2.243249168317677E-55</v>
+        <v>4.609702174208856E-77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.759117941234606E-21</v>
+        <v>1.227439719882987E-22</v>
       </c>
       <c r="E4">
-        <v>3.759117941234606E-21</v>
+        <v>1.227439719882987E-22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.479012157231247E-08</v>
+        <v>0.9999985757577518</v>
       </c>
       <c r="E5">
-        <v>1.479012157231247E-08</v>
+        <v>0.9999985757577518</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9999999999991067</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.9999999999991067</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999704596145</v>
+        <v>0.9999999961869017</v>
       </c>
       <c r="E7">
-        <v>2.954038547109405E-08</v>
+        <v>3.813098281568728E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999550797</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="E8">
-        <v>4.492028971014861E-11</v>
+        <v>1.77635683940025E-15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999812217</v>
+        <v>0.9999999999690805</v>
       </c>
       <c r="E9">
-        <v>1.87783122385099E-11</v>
+        <v>3.091948919120568E-11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.999984707895742</v>
+        <v>0.9999969929415872</v>
       </c>
       <c r="E10">
-        <v>1.529210425799121E-05</v>
+        <v>3.007058412829444E-06</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="F11">
-        <v>3.844633817672729</v>
+        <v>4.12056827545166</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
